--- a/development_tools/ui_dev/guide/widget_usage/_image/image.xlsx
+++ b/development_tools/ui_dev/guide/widget_usage/_image/image.xlsx
@@ -1571,23 +1571,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t> デモ</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1595,8 +1595,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -1609,13 +1609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1627,7 +1627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4749800" y="1727200"/>
+          <a:off x="7772400" y="1727200"/>
           <a:ext cx="1511300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1654,15 +1654,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>W11AC301.jsp</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1673,13 +1673,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1691,7 +1691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4749800" y="2590800"/>
+          <a:off x="7772400" y="2590800"/>
           <a:ext cx="1511300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1718,15 +1718,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>W11AC302.jsp</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1737,13 +1737,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1755,7 +1755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4749800" y="3454400"/>
+          <a:off x="7772400" y="3454400"/>
           <a:ext cx="1511300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1782,15 +1782,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>W11AC303.jsp</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1801,67 +1801,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>98426</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1189038" y="1274762"/>
-          <a:ext cx="765175" cy="787400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -1876,7 +1822,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3454400" y="2051050"/>
+          <a:off x="6477000" y="2051050"/>
           <a:ext cx="1295400" cy="863600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1911,13 +1857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -1932,7 +1878,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3454400" y="2051050"/>
+          <a:off x="6477000" y="2051050"/>
           <a:ext cx="1295400" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1969,13 +1915,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1985,8 +1931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1993900" y="5257800"/>
-          <a:ext cx="1511300" cy="657225"/>
+          <a:off x="1965325" y="1727200"/>
+          <a:ext cx="1489075" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -2012,15 +1958,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>WEB-INF</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2032,25 +1978,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート : カード 17"/>
+        <xdr:cNvPr id="19" name="フローチャート : カード 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1993900" y="6134100"/>
-          <a:ext cx="1511300" cy="644525"/>
+          <a:off x="1943100" y="3022600"/>
+          <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -2076,15 +2022,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>include</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2097,77 +2043,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="フローチャート : カード 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="7010400"/>
-          <a:ext cx="1511300" cy="644525"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPunchedCard">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>js</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2177,8 +2059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="7886700"/>
-          <a:ext cx="1511300" cy="644525"/>
+          <a:off x="1943100" y="3886200"/>
+          <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -2204,15 +2086,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>css</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2231,8 +2113,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2244,8 +2126,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-548481" y="3044031"/>
-          <a:ext cx="4284663" cy="800100"/>
+          <a:off x="1189038" y="1274762"/>
+          <a:ext cx="765175" cy="787400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2277,29 +2159,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>98426</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="直線コネクタ 7"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="18" idx="1"/>
+          <a:endCxn id="45" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-983456" y="3479006"/>
-          <a:ext cx="5154613" cy="800100"/>
+          <a:off x="3994150" y="2154237"/>
+          <a:ext cx="1079501" cy="863599"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2339,7 +2220,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2352,8 +2233,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-1432719" y="3928268"/>
-          <a:ext cx="6030913" cy="777875"/>
+          <a:off x="532606" y="1931193"/>
+          <a:ext cx="2055813" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2393,7 +2274,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2406,8 +2287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-1870869" y="4366418"/>
-          <a:ext cx="6907213" cy="777875"/>
+          <a:off x="100806" y="2362993"/>
+          <a:ext cx="2919413" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2439,16 +2320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2457,8 +2338,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6692900" y="1879600"/>
-          <a:ext cx="3238500" cy="1900237"/>
+          <a:off x="9715500" y="2158999"/>
+          <a:ext cx="3238500" cy="863601"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2484,7 +2365,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2492,7 +2373,7 @@
             <a:t>サブシステム</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2500,7 +2381,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2508,7 +2389,7 @@
             <a:t>のディレクトリ配下に、作成する業務画面</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2516,7 +2397,7 @@
             <a:t>JSP</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2532,14 +2413,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2548,8 +2429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="5516563"/>
-          <a:ext cx="2590800" cy="2687637"/>
+          <a:off x="3886200" y="3670300"/>
+          <a:ext cx="2590800" cy="1168400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2575,15 +2456,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>・業務画面テンプレート</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2591,31 +2472,31 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>部品</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2623,15 +2504,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>・業務画面作成ツール</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2639,15 +2520,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>のソースコードが含まれる。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2655,8 +2536,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2670,14 +2551,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2687,7 +2568,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7340600" y="5191125"/>
+          <a:off x="7359650" y="6486525"/>
           <a:ext cx="1060450" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -2714,8 +2595,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2729,14 +2610,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2746,7 +2627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7340600" y="4318000"/>
+          <a:off x="7359650" y="5613400"/>
           <a:ext cx="1060450" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2773,8 +2654,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2787,13 +2668,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2805,7 +2686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1965325" y="1727200"/>
+          <a:off x="4987925" y="1727200"/>
           <a:ext cx="1489075" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -2832,15 +2713,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>ss11AC</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2851,13 +2732,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -2872,7 +2753,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3454400" y="2051050"/>
+          <a:off x="6477000" y="2051050"/>
           <a:ext cx="1295400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2906,15 +2787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2923,7 +2804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="9077325"/>
+          <a:off x="1943100" y="6692900"/>
           <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -2950,15 +2831,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>tools</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2972,13 +2853,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>112713</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2990,8 +2871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-2480469" y="4944269"/>
-          <a:ext cx="8110538" cy="793750"/>
+          <a:off x="-1302544" y="3766343"/>
+          <a:ext cx="5726113" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3025,13 +2906,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3041,8 +2922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="8851900"/>
-          <a:ext cx="2590800" cy="1295400"/>
+          <a:off x="3886200" y="6908800"/>
+          <a:ext cx="2590800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3068,16 +2949,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -3092,13 +2973,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3108,7 +2989,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="8645525"/>
+          <a:off x="1943100" y="4759325"/>
           <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -3135,15 +3016,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>img</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3156,13 +3037,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3172,7 +3053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="9509125"/>
+          <a:off x="1943100" y="5622925"/>
           <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -3199,15 +3080,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>fonts</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3226,7 +3107,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>215899</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>112713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3239,8 +3120,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-2278857" y="4742656"/>
-          <a:ext cx="7678738" cy="765175"/>
+          <a:off x="-335757" y="2799556"/>
+          <a:ext cx="3792538" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3280,7 +3161,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>215899</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>112713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3293,8 +3174,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-2710657" y="5174456"/>
-          <a:ext cx="8542338" cy="765175"/>
+          <a:off x="-767557" y="3231356"/>
+          <a:ext cx="4656138" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3328,13 +3209,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3344,8 +3225,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="8851900"/>
-          <a:ext cx="2590800" cy="1079500"/>
+          <a:off x="3886200" y="5181600"/>
+          <a:ext cx="2590800" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3371,13 +3252,131 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
-              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>画面表示に利用する画像およびアイコン用フォントが含まれる。</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3454400" y="2051050"/>
+          <a:ext cx="1533525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="フローチャート : カード 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4965700" y="2806700"/>
+          <a:ext cx="1489075" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedCard">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>include</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3868,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="CX42" sqref="CX42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/development_tools/ui_dev/guide/widget_usage/_image/image.xlsx
+++ b/development_tools/ui_dev/guide/widget_usage/_image/image.xlsx
@@ -1571,23 +1571,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t> デモ</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1595,8 +1595,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -1609,13 +1609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1627,7 +1627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="1727200"/>
+          <a:off x="4749800" y="1727200"/>
           <a:ext cx="1511300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1654,15 +1654,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>W11AC301.jsp</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1673,13 +1673,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1691,7 +1691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="2590800"/>
+          <a:off x="4749800" y="2590800"/>
           <a:ext cx="1511300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1718,15 +1718,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>W11AC302.jsp</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1737,13 +1737,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1755,7 +1755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7772400" y="3454400"/>
+          <a:off x="4749800" y="3454400"/>
           <a:ext cx="1511300" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -1782,15 +1782,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>W11AC303.jsp</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1801,13 +1801,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98426</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1189038" y="1274762"/>
+          <a:ext cx="765175" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -1822,7 +1876,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="2051050"/>
+          <a:off x="3454400" y="2051050"/>
           <a:ext cx="1295400" cy="863600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1857,13 +1911,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -1878,7 +1932,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="2051050"/>
+          <a:off x="3454400" y="2051050"/>
           <a:ext cx="1295400" cy="1727200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1915,13 +1969,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1931,8 +1985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1965325" y="1727200"/>
-          <a:ext cx="1489075" cy="647700"/>
+          <a:off x="1993900" y="5257800"/>
+          <a:ext cx="1511300" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -1958,15 +2012,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>WEB-INF</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -1978,25 +2032,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="フローチャート : カード 18"/>
+        <xdr:cNvPr id="18" name="フローチャート : カード 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="3022600"/>
-          <a:ext cx="1492250" cy="638175"/>
+          <a:off x="1993900" y="6134100"/>
+          <a:ext cx="1511300" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -2022,15 +2076,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>js</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>include</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2043,13 +2097,77 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート : カード 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="7010400"/>
+          <a:ext cx="1511300" cy="644525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedCard">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2059,8 +2177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="3886200"/>
-          <a:ext cx="1492250" cy="638175"/>
+          <a:off x="1971675" y="7886700"/>
+          <a:ext cx="1511300" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
           <a:avLst/>
@@ -2086,15 +2204,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>css</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2113,8 +2231,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22226</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2126,8 +2244,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1189038" y="1274762"/>
-          <a:ext cx="765175" cy="787400"/>
+          <a:off x="-548481" y="3044031"/>
+          <a:ext cx="4284663" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2159,28 +2277,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>103186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98426</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22226</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="直線コネクタ 7"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="45" idx="1"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="18" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3994150" y="2154237"/>
-          <a:ext cx="1079501" cy="863599"/>
+          <a:off x="-983456" y="3479006"/>
+          <a:ext cx="5154613" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2220,7 +2339,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2233,8 +2352,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="532606" y="1931193"/>
-          <a:ext cx="2055813" cy="765175"/>
+          <a:off x="-1432719" y="3928268"/>
+          <a:ext cx="6030913" cy="777875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2274,7 +2393,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2287,8 +2406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="100806" y="2362993"/>
-          <a:ext cx="2919413" cy="765175"/>
+          <a:off x="-1870869" y="4366418"/>
+          <a:ext cx="6907213" cy="777875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2320,16 +2439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>215899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2338,8 +2457,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715500" y="2158999"/>
-          <a:ext cx="3238500" cy="863601"/>
+          <a:off x="6692900" y="1879600"/>
+          <a:ext cx="3238500" cy="1900237"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2365,7 +2484,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2373,7 +2492,7 @@
             <a:t>サブシステム</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2381,7 +2500,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2389,7 +2508,7 @@
             <a:t>のディレクトリ配下に、作成する業務画面</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2397,7 +2516,7 @@
             <a:t>JSP</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
@@ -2413,14 +2532,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2429,8 +2548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="3670300"/>
-          <a:ext cx="2590800" cy="1168400"/>
+          <a:off x="3886200" y="5516563"/>
+          <a:ext cx="2590800" cy="2687637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2456,15 +2575,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>・業務画面テンプレート</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2472,31 +2591,31 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>部品</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2504,15 +2623,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>・業務画面作成ツール</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2520,15 +2639,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>のソースコードが含まれる。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2536,8 +2655,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2551,14 +2670,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2568,7 +2687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7359650" y="6486525"/>
+          <a:off x="7340600" y="5191125"/>
           <a:ext cx="1060450" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -2595,8 +2714,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2610,14 +2729,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2627,7 +2746,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7359650" y="5613400"/>
+          <a:off x="7340600" y="4318000"/>
           <a:ext cx="1060450" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2654,8 +2773,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2668,13 +2787,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2686,7 +2805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4987925" y="1727200"/>
+          <a:off x="1965325" y="1727200"/>
           <a:ext cx="1489075" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -2713,15 +2832,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>ss11AC</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2732,13 +2851,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -2753,7 +2872,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="2051050"/>
+          <a:off x="3454400" y="2051050"/>
           <a:ext cx="1295400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2787,15 +2906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2804,7 +2923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="6692900"/>
+          <a:off x="1971675" y="9077325"/>
           <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -2831,15 +2950,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>tools</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -2853,13 +2972,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>98425</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2871,8 +2990,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-1302544" y="3766343"/>
-          <a:ext cx="5726113" cy="765175"/>
+          <a:off x="-2480469" y="4944269"/>
+          <a:ext cx="8110538" cy="793750"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2906,13 +3025,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2922,8 +3041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="6908800"/>
-          <a:ext cx="2590800" cy="431800"/>
+          <a:off x="3886200" y="8851900"/>
+          <a:ext cx="2590800" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2949,16 +3068,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>UI</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
@@ -2973,13 +3092,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2989,7 +3108,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="4759325"/>
+          <a:off x="1943100" y="8645525"/>
           <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -3016,15 +3135,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>img</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3037,13 +3156,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3053,7 +3172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="5622925"/>
+          <a:off x="1943100" y="9509125"/>
           <a:ext cx="1492250" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPunchedCard">
@@ -3080,15 +3199,15 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>fonts</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
@@ -3107,7 +3226,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>215899</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>112713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3120,8 +3239,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-335757" y="2799556"/>
-          <a:ext cx="3792538" cy="765175"/>
+          <a:off x="-2278857" y="4742656"/>
+          <a:ext cx="7678738" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3161,7 +3280,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>215899</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>112713</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3174,8 +3293,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-767557" y="3231356"/>
-          <a:ext cx="4656138" cy="765175"/>
+          <a:off x="-2710657" y="5174456"/>
+          <a:ext cx="8542338" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3209,13 +3328,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3225,8 +3344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="5181600"/>
-          <a:ext cx="2590800" cy="647700"/>
+          <a:off x="3886200" y="8851900"/>
+          <a:ext cx="2590800" cy="1079500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3252,131 +3371,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>画面表示に利用する画像およびアイコン用フォントが含まれる。</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3454400" y="2051050"/>
-          <a:ext cx="1533525" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="フローチャート : カード 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4965700" y="2806700"/>
-          <a:ext cx="1489075" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPunchedCard">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" tIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>include</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3867,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="CX42" sqref="CX42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
